--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.54</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.45</v>
+        <v>15.869</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.581</v>
+        <v>15.837</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.806</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.916</v>
+        <v>4.472</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.36294252405292</v>
+        <v>12.0114964035602</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.9933911981951</v>
+        <v>9.797295829783099</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.2390068062653</v>
+        <v>19.17118835285894</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.926939818493679</v>
+        <v>2.907019525340232</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.74555154690879</v>
+        <v>10.14985979324401</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.53490536474053</v>
+        <v>11.41042478917629</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.571690621439698</v>
+        <v>7.948869038409729</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.20102266083115</v>
+        <v>26.66304446821199</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.91140251081481</v>
+        <v>26.52602505699461</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.50425529709974</v>
+        <v>8.568754258815375</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.14703337286941</v>
+        <v>13.39343585458906</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.23337966902554</v>
+        <v>15.68978033001661</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.767279434526605</v>
+        <v>14.96669974599348</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.03597918174706</v>
+        <v>3.359235111187544</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>22.49844093493645</v>
+        <v>13.39428613158462</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12.17199513729799</v>
+        <v>11.91751876435413</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21.58861250325224</v>
+        <v>19.40617226071328</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.06610218208673</v>
+        <v>27.39599713216863</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.691802789376592</v>
+        <v>5.195958569156652</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13.43463087592251</v>
+        <v>8.851556337901151</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.75820661985289</v>
+        <v>13.609138778108</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.087463513888558</v>
+        <v>1.322257738628728</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.07770381130354</v>
+        <v>13.56054073380776</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>15.35090450810254</v>
+        <v>18.99342879740325</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.78020690664477</v>
+        <v>23.29239140021757</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>27.53414154927369</v>
+        <v>23.16206797124873</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.864086188089914</v>
+        <v>2.031738911624039</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.0602054333297</v>
+        <v>25.6958032013862</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.13758417403213</v>
+        <v>26.54061734085731</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>10.12273896395451</v>
+        <v>5.620583504712638</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>40.93650053624222</v>
+        <v>39.43890362179675</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>44.37638528148842</v>
+        <v>33.82214752672822</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>39.1725128746447</v>
+        <v>36.63721437259706</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>43.79503071190523</v>
+        <v>44.95501577072898</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>46.45567334036173</v>
+        <v>46.27974042955751</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>17.75818342183023</v>
+        <v>21.58115188557272</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.69593212709309</v>
+        <v>29.57113063309111</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36.45342510709259</v>
+        <v>32.11026184015729</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.36930785575926</v>
+        <v>16.29977230942733</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.59434604436399</v>
+        <v>25.06521035391339</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.20134375542456</v>
+        <v>30.39963426226503</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10.12239933536201</v>
+        <v>5.505994574115146</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>27.67379952715743</v>
+        <v>22.09668689618165</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.93160430612227</v>
+        <v>32.70130572559159</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>39.47393997666709</v>
+        <v>40.07844916677961</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>13.96911012187665</v>
+        <v>8.390754432297058</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>22.38103871469</v>
+        <v>19.85514025239615</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.62042954611923</v>
+        <v>22.16327586484825</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.604387132742047</v>
+        <v>1.812937386240037</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.47937574685954</v>
+        <v>27.53198742518211</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.30821162017962</v>
+        <v>30.9847532354502</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>10.98616038081237</v>
+        <v>8.410985279658675</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>42.6598235047196</v>
+        <v>41.69076351417877</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>46.87003344783659</v>
+        <v>42.70072424357058</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41.1789242091409</v>
+        <v>41.65774982834819</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>45.70562275127352</v>
+        <v>46.38920522788118</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>48.90532409548184</v>
+        <v>51.26010741751139</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>17.43581943181017</v>
+        <v>11.35522556938911</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.79343794004518</v>
+        <v>24.9537242997056</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.94809739515865</v>
+        <v>29.31348559525566</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16.41170916024045</v>
+        <v>11.51563351781946</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.51847427663409</v>
+        <v>25.41862585919164</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.87729518866881</v>
+        <v>31.51881861589412</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>11.10245001576532</v>
+        <v>3.623376848190169</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.22102776104969</v>
+        <v>20.32149060686343</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.61605046180479</v>
+        <v>35.7865914724258</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>10.58617743074626</v>
+        <v>2.871895144273449</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>41.38278864913411</v>
+        <v>33.69824871845924</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1.722133592118079</v>
+        <v>4.122955357424164</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>7.882192562773493</v>
+        <v>13.88692029324233</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>13.526053292311</v>
+        <v>21.56886828883719</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-8.462626469936282</v>
+        <v>0.7537762142179574</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>12.55937512779504</v>
+        <v>24.405981515138</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>16.19430031066081</v>
+        <v>29.99103181183636</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-5.221611509870614</v>
+        <v>2.523257137490631</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>23.67588857259735</v>
+        <v>36.47590277009296</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>27.96492506945872</v>
+        <v>40.90124909311854</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>21.69954528547846</v>
+        <v>32.14388064290931</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>26.38944033447952</v>
+        <v>36.85446452155722</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.29130073820451</v>
+        <v>41.05626482969396</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>2.189421719154984</v>
+        <v>6.878498948604502</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.80960896652285</v>
+        <v>15.51993074179466</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>19.43662496915319</v>
+        <v>29.20829901398265</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1.936031490185187</v>
+        <v>8.285859866781514</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>13.95381358622014</v>
+        <v>22.89106087847275</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>19.26923284269505</v>
+        <v>32.03290747693651</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-6.542639953026248</v>
+        <v>5.070745730492995</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>8.460138569005002</v>
+        <v>21.56242085154605</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>16.28187706143082</v>
+        <v>34.03960300607837</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-8.638929850093017</v>
+        <v>1.356333296408035</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>19.13657698395417</v>
+        <v>31.07436905607589</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>34.15355902682001</v>
+        <v>19.60897097996828</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>20.2712094951699</v>
+        <v>15.24713528416884</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>30.86400980682821</v>
+        <v>32.79697137994845</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>38.57167530423234</v>
+        <v>35.34489366035157</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6.51067796003785</v>
+        <v>5.867671847776261</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>25.16184568347324</v>
+        <v>12.56091142167052</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>31.96729749664964</v>
+        <v>18.95904143630248</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>13.56785533056216</v>
+        <v>12.20584546340203</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>23.5456882232711</v>
+        <v>19.31826681681158</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.41608592395812</v>
+        <v>28.76972889742834</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2.549909160658215</v>
+        <v>3.044308893367539</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>18.3110594608247</v>
+        <v>6.964138152632071</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.9520893921502</v>
+        <v>12.16591878920644</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1.191405911559531</v>
+        <v>1.963722924205978</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>32.05174791937394</v>
+        <v>16.68926541438621</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>45.0799266692166</v>
+        <v>31.45374578949697</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.53228815986568</v>
+        <v>19.68986457896288</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>47.35785258363026</v>
+        <v>37.4042742075225</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>54.90507473361967</v>
+        <v>42.83601309947536</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>9.559314668287907</v>
+        <v>4.953533913897598</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>35.5628296912388</v>
+        <v>13.19962914005635</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>47.7806924706731</v>
+        <v>22.70589184629731</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>49.97339313281155</v>
+        <v>48.08424918272765</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>39.52388195715662</v>
+        <v>42.50099740439088</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>49.28682907754097</v>
+        <v>53.89237569201975</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>56.60972232004052</v>
+        <v>58.41082583102751</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.22223153348552</v>
+        <v>18.94288264253265</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>45.39206396352633</v>
+        <v>50.78617984761799</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>51.06610240175499</v>
+        <v>52.52081548284654</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>22.17405274301142</v>
+        <v>25.5050543953654</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.2223940999759</v>
+        <v>36.02100847300234</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.85550106060637</v>
+        <v>41.72382008025128</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>13.50592861940694</v>
+        <v>9.104923323677447</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>36.61783003619827</v>
+        <v>32.9092077101926</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.70539267429473</v>
+        <v>40.38486078529824</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>14.51780307724366</v>
+        <v>9.928889898368283</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>52.81760259541888</v>
+        <v>56.76797052348083</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>64.33934744906186</v>
+        <v>63.63080598119325</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>63.04179917483945</v>
+        <v>69.75693217517342</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>71.01630937496408</v>
+        <v>76.71013317916291</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>77.75451978935389</v>
+        <v>80.48146516554996</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>27.31830532352426</v>
+        <v>32.6671952730107</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>60.77487846074031</v>
+        <v>68.17664602737987</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>71.42332463503274</v>
+        <v>72.751782703215</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>53.01500854467005</v>
+        <v>54.12585225612312</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>41.06295795698429</v>
+        <v>36.21948146095671</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>50.40986004488745</v>
+        <v>42.34471446550764</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>58.83757815819604</v>
+        <v>57.57114618759968</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>19.2674684409616</v>
+        <v>13.98050708022915</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>46.95837791765219</v>
+        <v>47.3789557853347</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>53.20761099274399</v>
+        <v>52.76399965715865</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>21.64179426313764</v>
+        <v>17.18727707267765</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>36.73436415811583</v>
+        <v>33.99354154239164</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>45.01636474498892</v>
+        <v>42.12837254807195</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>15.12072608510307</v>
+        <v>6.645849305692884</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>38.9601014035396</v>
+        <v>32.56363321908315</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>47.03498168228599</v>
+        <v>43.71622387845103</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>16.28152797321188</v>
+        <v>7.250148266162505</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>55.51395668477335</v>
+        <v>53.5087504680352</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>67.9890740623898</v>
+        <v>69.56888552566625</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>65.66771382334937</v>
+        <v>65.77632409576255</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>73.39792462729982</v>
+        <v>70.45744494453007</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>80.96958589292694</v>
+        <v>82.29422385806731</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.13476004065841</v>
+        <v>22.41928212573943</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>63.12653000450943</v>
+        <v>60.73540979204132</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>74.49960949693742</v>
+        <v>70.53899215408143</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>30.47792404172105</v>
+        <v>49.30796679523674</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>19.53783651993707</v>
+        <v>23.79975140448748</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.73032505051621</v>
+        <v>30.72279240036304</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.55424992052329</v>
+        <v>41.33855142583144</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1.314013704356958</v>
+        <v>9.660731223600642</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>25.12984428221581</v>
+        <v>39.94966781774288</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>31.46572857882762</v>
+        <v>47.86617559367063</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>5.073683609083262</v>
+        <v>13.5648540608708</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>17.8623264964654</v>
+        <v>33.51450255544529</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>26.3702151563668</v>
+        <v>45.5836365959438</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-4.773362993947332</v>
+        <v>7.660827810186596</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>15.72871038628594</v>
+        <v>33.17083140429935</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>23.49738901247957</v>
+        <v>45.48681165321717</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-5.297289948520943</v>
+        <v>4.270963767311745</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>30.70623740496881</v>
+        <v>47.65138567905183</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>43.38981963181348</v>
+        <v>68.06121989332414</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>41.16779768679264</v>
+        <v>52.60012443716123</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>49.5078355910838</v>
+        <v>61.36078668803131</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>56.79441721344251</v>
+        <v>80.27142390152096</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>7.285158854324808</v>
+        <v>14.56119088997144</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>38.58749168006712</v>
+        <v>54.76902100455953</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>50.14711512571115</v>
+        <v>71.45739256965879</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>12.35715978751543</v>
+        <v>10.91971127315147</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>21.03948960930595</v>
+        <v>18.11208322247235</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>26.98024612758465</v>
+        <v>29.06037282564247</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4.477312198069647</v>
+        <v>5.128732134915658</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.42140031534498</v>
+        <v>23.76493626311201</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.09406055855447</v>
+        <v>26.40966330384907</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>8.661561921681576</v>
+        <v>8.776164928173579</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>38.82770780477392</v>
+        <v>44.73768265194657</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>41.82924051542172</v>
+        <v>46.57328369070248</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>32.60844886188913</v>
+        <v>20.68338603775135</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>38.42613175956296</v>
+        <v>27.68407229593288</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>39.43221989946114</v>
+        <v>30.91112707747163</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>12.34855935043769</v>
+        <v>18.6715008685471</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.54471281756523</v>
+        <v>13.33490983503309</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>32.05765595563797</v>
+        <v>30.68477438626538</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>13.07361182298813</v>
+        <v>12.20748043856649</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.94350299634618</v>
+        <v>27.30869069302518</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.09663894819849</v>
+        <v>29.86675290655753</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2.289288943351378</v>
+        <v>3.993989123574814</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>17.71007564663999</v>
+        <v>17.48710028823646</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>21.87405513466297</v>
+        <v>18.4917271247929</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>3.751340881355479</v>
+        <v>4.275582203183951</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>30.82111834764111</v>
+        <v>29.56660209141277</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>14.62194680968594</v>
+        <v>20.8574367388151</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>26.58093738700889</v>
+        <v>33.74843176918877</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>31.2011572441354</v>
+        <v>35.55915647506041</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>7.584203588543764</v>
+        <v>7.200567350904514</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>34.07982084861143</v>
+        <v>40.70601098114726</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>36.00178018173308</v>
+        <v>41.32165333187575</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>13.10698970083365</v>
+        <v>10.07581523036426</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>48.53865055952259</v>
+        <v>59.49702654227723</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>50.36262743537779</v>
+        <v>54.38328045521142</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>45.63824630328081</v>
+        <v>49.14863026770693</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>51.48364728730041</v>
+        <v>57.79978833117172</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>52.01743517559085</v>
+        <v>58.64164943917896</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>19.65089177192069</v>
+        <v>24.34797235331118</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>37.61462379293553</v>
+        <v>38.46922670326779</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>43.53377762946332</v>
+        <v>43.06421378345509</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>17.54761447244185</v>
+        <v>21.35712326819792</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>33.69382947890419</v>
+        <v>37.21392821527959</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>36.04100512149145</v>
+        <v>36.4866305671848</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>8.712262818970229</v>
+        <v>6.788984956948362</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>30.08720909462273</v>
+        <v>32.69805105425487</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>34.02813891749643</v>
+        <v>35.30073434193763</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>11.8920711011421</v>
+        <v>8.257205789817224</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>44.88278689629075</v>
+        <v>54.76169907856922</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>12.77459539826798</v>
+        <v>6.428692203318242</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>25.48102844121166</v>
+        <v>24.03830043135476</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>30.51767808359381</v>
+        <v>28.21315702586635</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>7.618188227929191</v>
+        <v>3.441004284086993</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>34.62981304340739</v>
+        <v>36.51234146558161</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>37.15923375086881</v>
+        <v>39.60778137300544</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>13.11492087964184</v>
+        <v>7.743534874676641</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>49.1230493292464</v>
+        <v>54.26545682190105</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>51.61409962298612</v>
+        <v>54.29593990194429</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>46.77113517762427</v>
+        <v>54.18831965803947</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>52.50737331136672</v>
+        <v>60.27110752530787</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>53.4401552177053</v>
+        <v>61.17745226439945</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>18.72195199404753</v>
+        <v>7.799908813803789</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>37.81432246588345</v>
+        <v>25.39337509533948</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>44.00551795760764</v>
+        <v>31.93918754202389</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>16.29301438111306</v>
+        <v>15.06842333621118</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>33.13274637580042</v>
+        <v>33.60408244467251</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>36.11929625639117</v>
+        <v>34.69446401871148</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>9.153452676024264</v>
+        <v>4.9910349003781</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.97723965983523</v>
+        <v>28.88936920691452</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>35.86449945946758</v>
+        <v>35.89156520511642</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>12.44187604322574</v>
+        <v>7.406394022795102</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>45.90064074476503</v>
+        <v>46.19587693586222</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>3.063173651806938</v>
+        <v>4.8321227287054</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>13.9881953303274</v>
+        <v>21.73069371022746</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>19.39651316313002</v>
+        <v>30.2966037650102</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-4.529010222741576</v>
+        <v>5.501546514014898</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>20.16260814522014</v>
+        <v>36.04267773406537</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>22.59836543373657</v>
+        <v>42.41913969684293</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.1374658444298476</v>
+        <v>6.671884870876823</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>34.03648413162486</v>
+        <v>53.48787207628258</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>36.61455668488872</v>
+        <v>56.51310496120627</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>31.04000868525618</v>
+        <v>50.58345796126884</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>36.94258330091805</v>
+        <v>56.7890653538764</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>37.67791341605545</v>
+        <v>58.66165737881243</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>6.523731386454967</v>
+        <v>7.637481281957491</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>22.55489727843101</v>
+        <v>21.88133083736166</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.26805272207677</v>
+        <v>37.26986978390251</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>4.480146369898788</v>
+        <v>10.69522960845371</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>19.64846826962557</v>
+        <v>30.17621359116926</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.59624160410442</v>
+        <v>33.83471546751551</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-5.455929945274427</v>
+        <v>4.984696299381412</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>13.79309790993259</v>
+        <v>27.80522348892595</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>18.23538681692087</v>
+        <v>34.49598070575644</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-3.363594564996994</v>
+        <v>5.178122050898182</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>27.72341015471632</v>
+        <v>42.04980823539044</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>38.20822522409454</v>
+        <v>30.98821761264393</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.08794523592045</v>
+        <v>25.57908907867944</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>37.41631203767034</v>
+        <v>40.70213591403122</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>42.10083719395953</v>
+        <v>42.50162751591625</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>9.990307197732177</v>
+        <v>15.50302709314206</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>31.66292358573373</v>
+        <v>26.26625364702875</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>35.97538249699139</v>
+        <v>33.18480828829856</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>12.92527591460448</v>
+        <v>14.27374863084467</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.48860456218976</v>
+        <v>26.40417051771744</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.77759499179848</v>
+        <v>34.89022884843125</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>1.681619988963453</v>
+        <v>4.357081225384203</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>21.62317203437992</v>
+        <v>17.14147144345072</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.91815723989523</v>
+        <v>22.08822717449188</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>3.863348046881007</v>
+        <v>6.665486296092034</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>37.29548426895592</v>
+        <v>33.61738755495069</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>47.128178312087</v>
+        <v>50.63273383254375</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>40.3678363062657</v>
+        <v>30.94869381210232</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>49.61625991986995</v>
+        <v>47.64707526291873</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>54.762676053851</v>
+        <v>52.04805291523978</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>11.35269689630923</v>
+        <v>14.91661623736205</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>40.61704687920025</v>
+        <v>30.58868817132322</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>47.9427982164428</v>
+        <v>42.55488848912913</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>51.66950984932664</v>
+        <v>55.67157663135828</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>43.58587501128818</v>
+        <v>51.35641841278357</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>53.23834024147179</v>
+        <v>60.77124634125812</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>57.48764502336385</v>
+        <v>62.1403225915324</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>20.79976327550389</v>
+        <v>25.23859326367133</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>48.94526402081198</v>
+        <v>57.04518606306628</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>52.16949477506419</v>
+        <v>55.99241637176215</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>19.7173629538639</v>
+        <v>24.12775898547834</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>10.53546177118399</v>
+        <v>7.700779733015477</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.89242217498472</v>
+        <v>39.54254637065588</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>40.54607664933307</v>
+        <v>42.03068071589659</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>14.65420536948525</v>
+        <v>10.16387155091403</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>54.43587629013876</v>
+        <v>64.35301137349941</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>62.86011353179988</v>
+        <v>70.00918502623924</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>60.59241232906773</v>
+        <v>67.85653916482514</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>69.18165587944527</v>
+        <v>76.01464727622712</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>73.57652939338041</v>
+        <v>78.2753615590652</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>25.81457367680063</v>
+        <v>30.37854891489162</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>61.52310862851908</v>
+        <v>70.50321322864662</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>67.37447930637742</v>
+        <v>72.32625576887433</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>53.65834278291736</v>
+        <v>57.96903379204576</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>44.54262538749053</v>
+        <v>49.15901660062764</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>53.85429443914262</v>
+        <v>54.45694064502631</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>58.97390018705183</v>
+        <v>61.73011882383585</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>20.39933508315873</v>
+        <v>18.72711776845728</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>49.80469744678261</v>
+        <v>52.61334228437118</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>53.46343896493759</v>
+        <v>53.83196080947756</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>18.73529247537446</v>
+        <v>15.62230303360452</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>36.66510897526149</v>
+        <v>35.31366062498108</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>42.34398234700917</v>
+        <v>40.54048568381054</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>11.46091933039121</v>
+        <v>5.132221778366379</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>38.39922256211866</v>
+        <v>36.6555131270198</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.86283434050389</v>
+        <v>42.50053940810594</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>15.61164934644181</v>
+        <v>6.916222837811993</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>56.07442261743799</v>
+        <v>58.00219145558297</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>65.30732433184481</v>
+        <v>71.09519593962477</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>62.40163537065494</v>
+        <v>67.18027850610871</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>70.81506617421068</v>
+        <v>73.64211215647165</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>75.8462580858676</v>
+        <v>80.62009445979166</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>26.02169154378209</v>
+        <v>20.83294231647412</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>63.03000418605104</v>
+        <v>64.77996405209323</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>69.43622207224115</v>
+        <v>68.7320377149245</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>35.23988627009166</v>
+        <v>52.6707867450117</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>26.77105083126388</v>
+        <v>37.24439541702029</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>36.807011497568</v>
+        <v>43.4040550771475</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>41.46701449336592</v>
+        <v>47.33762023674745</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>5.674293345700821</v>
+        <v>15.47309301655726</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>31.86900937700484</v>
+        <v>46.9574118470161</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>35.65880239494756</v>
+        <v>52.15393435531612</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.412211372475355</v>
+        <v>14.05788754353518</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>21.47280253076073</v>
+        <v>36.36714676564851</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>27.36867288141449</v>
+        <v>44.97622003855977</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-4.811274812459549</v>
+        <v>7.46807649091755</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>19.36537389930033</v>
+        <v>37.69127102227575</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>23.61906309844731</v>
+        <v>46.39840638163022</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1.91788550126466</v>
+        <v>7.136703584992883</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.98006749300887</v>
+        <v>55.25522828566197</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>45.42867738544103</v>
+        <v>72.00267844385228</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>42.38626235131196</v>
+        <v>60.36268086570413</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>51.3048527702568</v>
+        <v>69.95323700101679</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>56.1550459049384</v>
+        <v>80.40966932281563</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>9.089104620200194</v>
+        <v>18.64437334821222</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>43.02867124591675</v>
+        <v>65.07190183794283</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>49.64633517475033</v>
+        <v>75.16038697942714</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>14.2445710548228</v>
+        <v>14.50531795209641</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.9100294445723</v>
+        <v>23.39918378056651</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>30.9239038076912</v>
+        <v>30.40647802123444</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>3.591987687112843</v>
+        <v>0.4865234099298448</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.24878730027397</v>
+        <v>18.00342223321111</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.41857246588318</v>
+        <v>21.49861434089892</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>7.132573339870143</v>
+        <v>3.855550490191085</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>41.67269531577523</v>
+        <v>43.24419077221525</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>43.94924740994483</v>
+        <v>44.22722651769967</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>34.63812993696793</v>
+        <v>21.39226000708137</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>40.95236932592428</v>
+        <v>29.01690587501727</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>41.56943105070354</v>
+        <v>29.13019068545604</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>10.82151189904492</v>
+        <v>10.00967670229867</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>27.85221220275232</v>
+        <v>14.47831552417635</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>33.31105070823396</v>
+        <v>22.38826029932978</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>15.00426228163505</v>
+        <v>13.7194962950567</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.987926779829</v>
+        <v>29.01165424961609</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>32.55028187416633</v>
+        <v>30.53572138246096</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>2.566030303213858</v>
+        <v>1.921952824882112</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>19.36626806461839</v>
+        <v>15.40461248454243</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>22.92735852194633</v>
+        <v>17.63109185440165</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>4.426509634896973</v>
+        <v>2.192521045850953</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>34.45804894448902</v>
+        <v>30.28643468379246</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>16.68276889958512</v>
+        <v>27.2071133453221</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>32.03975529340794</v>
+        <v>42.09987774714393</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>35.52338311511067</v>
+        <v>39.60989790884401</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>6.935962862297603</v>
+        <v>5.534980447190726</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>35.79647237378099</v>
+        <v>39.89034977900834</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>37.04923889410633</v>
+        <v>40.27483672068198</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>11.94029418119396</v>
+        <v>7.580586220706913</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>52.31069467756724</v>
+        <v>61.16433386378517</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>53.21823863207187</v>
+        <v>55.28131852010795</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>48.88096876762594</v>
+        <v>51.8537766134226</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>55.24447457258744</v>
+        <v>60.68279094839932</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>55.30442223787723</v>
+        <v>58.93919474538396</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>18.72266672211747</v>
+        <v>18.82955416621705</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.18889258118548</v>
+        <v>44.26946449189617</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.85088104031837</v>
+        <v>43.13598616021374</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>19.83203588104931</v>
+        <v>22.86936104096279</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>38.47472979058796</v>
+        <v>40.11227606221519</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>40.12266454375448</v>
+        <v>38.58775198758197</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>9.543404616595458</v>
+        <v>6.100582471084131</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.98370306637734</v>
+        <v>34.11672913651594</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>36.22801152246619</v>
+        <v>37.43159761468046</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>13.29731577741082</v>
+        <v>6.80394446152242</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>49.85485322662009</v>
+        <v>58.29962558636215</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>14.38638925234168</v>
+        <v>9.291720766997948</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>30.52428375667532</v>
+        <v>29.16198509902213</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>34.49460360507923</v>
+        <v>28.85969040004344</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.753095843500821</v>
+        <v>1.25413500649751</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>36.16853996794829</v>
+        <v>34.80231917520153</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>38.09930885616247</v>
+        <v>37.49724214561618</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>11.69438033824111</v>
+        <v>5.069201862583238</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>52.62202294738996</v>
+        <v>54.79485338315057</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>54.2906015689785</v>
+        <v>53.54089342103912</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>49.85881931332439</v>
+        <v>54.6964846041129</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>56.11189872329645</v>
+        <v>60.49716459920609</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>56.57716721894218</v>
+        <v>58.924432811875</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>17.46787320465642</v>
+        <v>3.998106903233023</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>42.11035251861043</v>
+        <v>30.15590018323962</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>46.05825517747869</v>
+        <v>28.89819325665675</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>18.12458271847943</v>
+        <v>15.16630749055336</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.50304502635416</v>
+        <v>34.95773566590075</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>39.89045931857288</v>
+        <v>35.497441731687</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>9.696058166293636</v>
+        <v>4.65593499010566</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>33.60871364309612</v>
+        <v>29.96744444238539</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>37.91764748842694</v>
+        <v>37.92803887418543</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>13.53551687964325</v>
+        <v>6.254970960451239</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>50.5397257490812</v>
+        <v>48.45967193650326</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>3.811399210602278</v>
+        <v>7.956757347016531</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>18.00623123649942</v>
+        <v>27.93468928338207</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>22.37389002472946</v>
+        <v>32.26930267045383</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-6.577790979379939</v>
+        <v>4.30235724810424</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.24786993859531</v>
+        <v>34.6709058941406</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>22.09549873753904</v>
+        <v>42.57307743368261</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-2.543661652959138</v>
+        <v>5.135705840018026</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>36.10959728841244</v>
+        <v>56.43039332647403</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>37.87390669892364</v>
+        <v>57.75086093317574</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>32.6203805856472</v>
+        <v>52.12341230813182</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>39.0337424985433</v>
+        <v>58.85620754261798</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>39.31026064931702</v>
+        <v>59.7999062384351</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>4.07811232451549</v>
+        <v>6.785138656956494</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.4020328155367</v>
+        <v>31.91449099308642</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.90536216811386</v>
+        <v>36.3904127059451</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>5.377316505690438</v>
+        <v>11.28428294352226</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>22.91629783168016</v>
+        <v>32.04761324379798</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.23438457220868</v>
+        <v>35.12883716853933</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-6.165193687293009</v>
+        <v>4.849534434809122</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>14.88987259709826</v>
+        <v>28.57775984611288</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>18.70504972931978</v>
+        <v>37.10987210783173</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-3.610884559054465</v>
+        <v>4.819931915343265</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>30.81748583665634</v>
+        <v>44.90646015428571</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>41.4818786477168</v>
+        <v>32.22042378203196</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>30.14582619273745</v>
+        <v>26.73224396350438</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>41.13492256489684</v>
+        <v>43.4235179164436</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>45.59571273148772</v>
+        <v>42.79852037006738</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>9.185049803411051</v>
+        <v>11.84743034662237</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>34.7664838030415</v>
+        <v>25.27978977388122</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>38.79928679820765</v>
+        <v>31.18352601191738</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>15.19100314096417</v>
+        <v>18.49563080364048</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.33805553951265</v>
+        <v>31.01513460768127</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>36.22113858384355</v>
+        <v>36.98019900323801</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>1.223911577947128</v>
+        <v>2.399634582628785</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>22.98702590130864</v>
+        <v>16.42717544992212</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>26.21021028720045</v>
+        <v>21.06826684110446</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>4.150435896614663</v>
+        <v>5.159981317068155</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>40.90082435454316</v>
+        <v>35.34479679826249</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>50.33711043131102</v>
+        <v>51.7340684855255</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>43.64774219722395</v>
+        <v>34.26054178748373</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>53.14315536833391</v>
+        <v>50.33409509827509</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>59.2230511970921</v>
+        <v>54.50852315521524</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>10.7808828545852</v>
+        <v>13.17245294281325</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>44.21565984804027</v>
+        <v>31.55264667031417</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>50.17314348187296</v>
+        <v>41.23086480713228</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>56.1776302726374</v>
+        <v>60.63449783529094</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>48.26291920771216</v>
+        <v>54.98307784098009</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>58.51469353436778</v>
+        <v>66.24868072867828</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>62.4502823473489</v>
+        <v>64.89456897245117</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>20.88932683813992</v>
+        <v>22.38098661353038</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>53.69719423319489</v>
+        <v>59.17276623440949</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>56.53462849282975</v>
+        <v>59.15080121974778</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>22.41275935759445</v>
+        <v>29.17776044795814</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>42.51339937789314</v>
+        <v>46.12408410039417</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>46.02969123435795</v>
+        <v>45.43464761176444</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>10.67777076545597</v>
+        <v>6.954788404060551</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>39.57755727057248</v>
+        <v>42.28068980442673</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>41.98887519114834</v>
+        <v>42.86368668127328</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>15.71976644811353</v>
+        <v>8.957327397967145</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>59.4566801528749</v>
+        <v>67.91493246450388</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>67.26027345264758</v>
+        <v>71.86713549861187</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>65.60532776069931</v>
+        <v>73.71608457325434</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>74.37094968789329</v>
+        <v>81.83538994128358</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>79.58852423303047</v>
+        <v>84.32077183349193</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>26.29977893920052</v>
+        <v>29.08531932224765</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>66.89676910979577</v>
+        <v>74.65666162544102</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>71.19080536445443</v>
+        <v>74.78343762420351</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>57.96974135837225</v>
+        <v>62.31574610646979</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>48.96479361924881</v>
+        <v>51.95000759242352</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>58.85660132954641</v>
+        <v>58.684548485712</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>63.71634668644587</v>
+        <v>64.20840607158738</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>20.10185764491333</v>
+        <v>17.18212477674028</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>54.24122380942336</v>
+        <v>55.03186541615811</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>57.57140687738371</v>
+        <v>56.2705472856311</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.00024494033531</v>
+        <v>18.39752512652345</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>41.98576583306205</v>
+        <v>39.11356270625932</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>46.12984506986412</v>
+        <v>41.27011648747636</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>11.35391582790866</v>
+        <v>3.748705519454671</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>40.86515002230645</v>
+        <v>38.19731544504679</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>44.18551991225098</v>
+        <v>42.33360104507689</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>16.39694098760375</v>
+        <v>5.03610520817352</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>60.80496817888883</v>
+        <v>59.70051051115001</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>69.54889792740705</v>
+        <v>71.57005740204012</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>67.22066192993896</v>
+        <v>71.26338384625443</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>75.82529239732936</v>
+        <v>76.79522026141935</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>81.70618952577222</v>
+        <v>85.65781474902182</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>26.19114580423481</v>
+        <v>20.86041702575578</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>68.14963859893666</v>
+        <v>68.46122916796298</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>73.08142116234399</v>
+        <v>69.86194827683049</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>37.95710424038978</v>
+        <v>57.08927331917388</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.62061283597429</v>
+        <v>38.63139222584319</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>40.28369146193683</v>
+        <v>46.56118778391727</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>44.66423311123035</v>
+        <v>49.5528673546382</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>4.125874106085414</v>
+        <v>14.60563898394029</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.74533864171374</v>
+        <v>49.9958575058611</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>38.2005160056807</v>
+        <v>54.88874457062702</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>6.64877521596399</v>
+        <v>16.22071687239237</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>25.58173661363127</v>
+        <v>40.22239008937071</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.94878586634538</v>
+        <v>45.99165288135269</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-6.285590422444571</v>
+        <v>5.932900171873062</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>20.1680789044278</v>
+        <v>39.04652003671618</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>23.26348408786001</v>
+        <v>47.22428670130856</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-2.584640363459684</v>
+        <v>5.637350886687813</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>39.03912296066099</v>
+        <v>57.84658335133699</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>48.00315156855692</v>
+        <v>73.11343217753742</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>45.48043511623588</v>
+        <v>63.76565555236261</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>54.6026917127496</v>
+        <v>72.37158734769514</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>60.3359800232767</v>
+        <v>84.41244271667327</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>7.843999572793518</v>
+        <v>17.66877747483633</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>46.43865791781749</v>
+        <v>69.31417358711235</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>51.57682144737272</v>
+        <v>76.6622383698936</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>10.51977924260616</v>
+        <v>13.16524954478327</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>17.98450260098532</v>
+        <v>17.11818605504287</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>23.74489231219909</v>
+        <v>24.98050406087502</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-0.16531717926377</v>
+        <v>1.762520820192492</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>18.1661859564729</v>
+        <v>12.06224810466994</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.78471616036521</v>
+        <v>14.85238700809886</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>2.916887941336936</v>
+        <v>6.316255675576649</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>31.55015695892127</v>
+        <v>30.10203254559357</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>34.07760701440046</v>
+        <v>32.87157233543173</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>26.22658236591642</v>
+        <v>14.20979542428527</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.81096804786371</v>
+        <v>18.16465339934041</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>31.74450829875117</v>
+        <v>19.93558514214995</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7.511090254813196</v>
+        <v>12.83371531257882</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>20.40275358468669</v>
+        <v>16.56536528883068</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.33743585428353</v>
+        <v>28.5062110122929</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>8.369895045968175</v>
+        <v>7.508278657130873</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>20.88173112210833</v>
+        <v>19.25635296188739</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>24.37646249628116</v>
+        <v>22.56671413320791</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-4.103446855326487</v>
+        <v>-1.565108904169101</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>9.525991632578451</v>
+        <v>4.612436179202614</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>14.18824512952328</v>
+        <v>7.777033976149205</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-2.707075538373886</v>
+        <v>-0.2875671650481237</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>23.2026638475047</v>
+        <v>15.44027213817154</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>12.13029494903272</v>
+        <v>17.1464657348713</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>23.21755993477205</v>
+        <v>26.15718827965369</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.49624309296285</v>
+        <v>26.21112760657702</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>2.376288195153791</v>
+        <v>0.9979514059777266</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>26.81898402310101</v>
+        <v>25.60856148312971</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.56022320575947</v>
+        <v>26.11991141560909</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>6.858771182675717</v>
+        <v>4.916007707421791</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>41.23569162996786</v>
+        <v>40.69356428979118</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>42.42645895334083</v>
+        <v>38.19074018855085</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>39.68832569259631</v>
+        <v>39.44863109040516</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>44.32101873268154</v>
+        <v>44.27640460729256</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>44.71543341618019</v>
+        <v>44.87022626274808</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>14.73540336252284</v>
+        <v>19.13053686519122</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>34.00131196759547</v>
+        <v>43.2064564815214</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>39.12790944302407</v>
+        <v>45.93598847152231</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>12.58854369526374</v>
+        <v>12.40147864522132</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.7372607230166</v>
+        <v>25.70667401172737</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.36518506010498</v>
+        <v>27.0291227095539</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>2.274446634824948</v>
+        <v>0.3191575748623663</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>22.51927010701295</v>
+        <v>19.82874220021882</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.92568461909903</v>
+        <v>25.17627538983638</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>5.519884077330988</v>
+        <v>2.294590694816403</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>37.91429265134836</v>
+        <v>40.14968728601177</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>9.894181615438946</v>
+        <v>4.357220779267262</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>21.7593837914419</v>
+        <v>17.35223779001436</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>26.54505481190258</v>
+        <v>20.1100466702463</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>2.224537472011796</v>
+        <v>-0.6391378176726654</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>27.21835018879575</v>
+        <v>23.37888721177632</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.67239257333178</v>
+        <v>26.55889696355463</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>6.672764217709791</v>
+        <v>5.535359013690879</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>41.61901309625681</v>
+        <v>37.46546299572002</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>43.59557207964019</v>
+        <v>40.48450747187689</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>40.715733342121</v>
+        <v>42.63909823142454</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>45.24152596706557</v>
+        <v>44.55581273533063</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>46.07401568298781</v>
+        <v>47.02139262545069</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>13.50709541053555</v>
+        <v>4.73559174164615</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>33.97167603412582</v>
+        <v>31.09341920653968</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>39.40248403465436</v>
+        <v>35.52565467509149</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>10.93522300816266</v>
+        <v>6.394910160994414</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>27.80265887486446</v>
+        <v>21.52125887377132</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>31.208488357196</v>
+        <v>25.52977273191357</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>2.458763827264125</v>
+        <v>-1.001970041085023</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>23.15385570455636</v>
+        <v>16.05162551744854</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.67725402343283</v>
+        <v>26.44593952717396</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>5.811584572061787</v>
+        <v>2.127470602133794</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>38.63919309772998</v>
+        <v>30.14322055050917</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-0.5620516894515255</v>
+        <v>1.849405299492776</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>9.315087386950202</v>
+        <v>13.96586151355844</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>14.47849149713185</v>
+        <v>21.50795672082156</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-10.9986249751934</v>
+        <v>-0.9620802457800259</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>11.36161735603056</v>
+        <v>19.6777501495909</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>13.70664948481511</v>
+        <v>28.67405257341971</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-7.458553528036232</v>
+        <v>1.109103798451024</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.13505286679086</v>
+        <v>34.80262961867054</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.18219831892749</v>
+        <v>41.10923638113686</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.49797946577662</v>
+        <v>34.82721265887884</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.14938022934111</v>
+        <v>38.73354351485531</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.76668641543314</v>
+        <v>43.30675783879872</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>0.2049664731214644</v>
+        <v>2.648382906961867</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>17.2819839842164</v>
+        <v>26.61158185433065</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>23.29104569620826</v>
+        <v>38.28401659979839</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-1.866304806131684</v>
+        <v>3.294608715545046</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>13.13545693996714</v>
+        <v>18.7230261496683</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>16.44709833280751</v>
+        <v>25.61724723302249</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-13.46735863502882</v>
+        <v>-1.363244624044057</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>4.332190227543577</v>
+        <v>13.85106092336036</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>9.330120945633716</v>
+        <v>25.23359629479111</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-11.40803881790595</v>
+        <v>-0.07693478837611067</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>18.792838554128</v>
+        <v>26.16195717353026</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.62266292249117</v>
+        <v>18.0205739255514</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>19.13137181789864</v>
+        <v>13.56233877045823</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.17699175894521</v>
+        <v>26.37502731086257</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>32.27900011352236</v>
+        <v>26.00823973446273</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>1.385673053928631</v>
+        <v>2.575821692160094</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>24.00605599168537</v>
+        <v>12.30710858123435</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.13119210584384</v>
+        <v>18.16674106657903</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>12.79597118808035</v>
+        <v>13.6493303227717</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.52164462632257</v>
+        <v>23.43125883314906</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.5020504914508</v>
+        <v>31.53457135286896</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-1.708689536839058</v>
+        <v>-1.436133096503152</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>17.5544839940364</v>
+        <v>7.453279660917122</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>21.90925941917338</v>
+        <v>12.46028133331779</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>1.579088746143938</v>
+        <v>3.153694366247056</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.04901256332511</v>
+        <v>24.73140536207211</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>44.71232047350263</v>
+        <v>37.66764772633765</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>38.92784433261853</v>
+        <v>24.95412415792898</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>46.46546916477931</v>
+        <v>36.56867703215362</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>52.4817215060324</v>
+        <v>40.00991950010853</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>8.231112519007265</v>
+        <v>7.25101983318125</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>39.15032177488953</v>
+        <v>19.60488100323187</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>46.46401925289908</v>
+        <v>30.13153847924782</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>44.68393042390476</v>
+        <v>43.9466735521104</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.65845909764631</v>
+        <v>39.50881404188704</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.9846704399952</v>
+        <v>47.13489382740523</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>48.54740096063281</v>
+        <v>45.64305095123886</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>12.58605903291575</v>
+        <v>11.98628921228041</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>42.3975347129937</v>
+        <v>44.47919869726177</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>46.34145764153551</v>
+        <v>45.72764370582509</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>19.78951347599359</v>
+        <v>22.79408349222507</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>37.43211875238693</v>
+        <v>36.94619885065656</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>42.10170561651817</v>
+        <v>39.86174487402928</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>7.589032128070754</v>
+        <v>4.606346539862642</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>33.95743607257185</v>
+        <v>34.05325276935721</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>37.55286283808213</v>
+        <v>36.44450988825842</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>12.99532722640026</v>
+        <v>9.670094677869891</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>53.40349466687938</v>
+        <v>58.74111427275496</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>61.47067371062971</v>
+        <v>61.19787630140725</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>60.81399380318156</v>
+        <v>68.19147536339527</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>67.63359096611805</v>
+        <v>72.14593400898261</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>72.7730572452317</v>
+        <v>73.52407144804812</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>23.7541837233596</v>
+        <v>27.85639023967646</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>61.76989461996037</v>
+        <v>65.98611542867275</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>67.44103995216881</v>
+        <v>69.45267930127466</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>46.57302551735981</v>
+        <v>46.89803180813034</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>37.39085641709565</v>
+        <v>34.39621443076235</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>45.36674616829589</v>
+        <v>38.8946637536357</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>49.90063184599714</v>
+        <v>45.84345183688026</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>11.82849348498207</v>
+        <v>5.937314353995188</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>42.9906435469554</v>
+        <v>40.63904291482442</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>47.45766436568778</v>
+        <v>44.6156690790976</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>18.45660267415709</v>
+        <v>15.0601264913737</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>36.97329039173201</v>
+        <v>32.66913716824347</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>42.30431370438458</v>
+        <v>38.77394499217549</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>8.350584856875436</v>
+        <v>3.017767028562165</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>35.31216271113306</v>
+        <v>32.36078439144087</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.8623525209011</v>
+        <v>38.28237487386524</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>13.77562764885481</v>
+        <v>7.629372328362102</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>54.85353604795969</v>
+        <v>52.7657155697006</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>63.9017676207082</v>
+        <v>64.22691773006184</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>62.54024391508641</v>
+        <v>65.01127802694228</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>69.19602198432439</v>
+        <v>68.30778151570712</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>75.03072223810044</v>
+        <v>77.36450977678327</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>23.73107578774186</v>
+        <v>19.68932574345452</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>63.13192890704309</v>
+        <v>61.96683121742296</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>69.46291480635455</v>
+        <v>68.26510614408369</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>26.39061967243546</v>
+        <v>42.36387133146864</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>17.91616677049712</v>
+        <v>20.17115878736835</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.61666259441192</v>
+        <v>26.27609207560405</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>30.64078649750947</v>
+        <v>31.19388100589164</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>-4.245295633847897</v>
+        <v>2.187659165517456</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>23.33653157660884</v>
+        <v>33.69427819526903</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.92802723957908</v>
+        <v>41.70165783234752</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>3.941447347603952</v>
+        <v>11.54232107099964</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>20.38061682183974</v>
+        <v>31.60327953765164</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>25.91402326710525</v>
+        <v>41.50186064217181</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-9.515868570820096</v>
+        <v>1.890143660524167</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>14.36243918049373</v>
+        <v>29.0711431406131</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>18.66548409704916</v>
+        <v>39.56855419980498</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-5.442368583175103</v>
+        <v>4.120641944351043</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>32.81047368489349</v>
+        <v>47.41446894061088</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>42.04569222010556</v>
+        <v>62.99666146400165</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>40.5081046537382</v>
+        <v>51.7263082528342</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>47.6422751013678</v>
+        <v>59.43262253165133</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>53.31337872533148</v>
+        <v>71.90102616862018</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>5.126853591285823</v>
+        <v>10.83001428493013</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>41.12252456516515</v>
+        <v>56.55123443004133</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>47.66527911425484</v>
+        <v>68.95955039628657</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>11.54093528795451</v>
+        <v>12.94255743692743</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>19.19015575013822</v>
+        <v>15.08808989040896</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.99175827019979</v>
+        <v>28.08137132086563</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>0.9134559446082955</v>
+        <v>3.235894921934964</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.31475318042082</v>
+        <v>16.51265050806651</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>27.6871213051236</v>
+        <v>18.41775581164873</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>5.310257210863509</v>
+        <v>8.00107174253187</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>37.62413757771428</v>
+        <v>37.39689938429451</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>43.21028315985838</v>
+        <v>40.11581341336956</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>31.50457221885357</v>
+        <v>15.29406785384741</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>38.43751815269607</v>
+        <v>21.88292001729805</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>41.28795396971054</v>
+        <v>26.70721513939964</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>10.58737777800311</v>
+        <v>17.20943502980499</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>23.46318776045323</v>
+        <v>14.11215254520089</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>33.02717026139717</v>
+        <v>27.86188566218113</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>14.7134378105535</v>
+        <v>10.78821900227774</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.36236169963235</v>
+        <v>26.73140532468105</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.02109202709703</v>
+        <v>36.84421951109888</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>3.107734156542425</v>
+        <v>-0.3372294229035191</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>19.6328250076973</v>
+        <v>10.97203086672711</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>27.95387504542089</v>
+        <v>16.61743561867385</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>2.684722496443812</v>
+        <v>-1.572944574553752</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>33.76037517951423</v>
+        <v>22.27560303863594</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>15.05525666767091</v>
+        <v>20.56967893561253</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>26.77294483897773</v>
+        <v>30.51811716966264</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>32.98618693192702</v>
+        <v>32.89238460773712</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>5.515516634886495</v>
+        <v>3.050473106458504</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>34.77021318282317</v>
+        <v>34.58445222342529</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>38.37459892540047</v>
+        <v>35.66451433827881</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>11.66057586553844</v>
+        <v>6.053570501959385</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>50.61557214745027</v>
+        <v>53.80665016968204</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>54.8224891744962</v>
+        <v>48.99434814949226</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>48.65522430948275</v>
+        <v>49.92426802325346</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>55.58627488951768</v>
+        <v>58.76069484634665</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>57.91476185761925</v>
+        <v>59.64594413676244</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>20.5673604545608</v>
+        <v>23.96136840091736</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>40.63600242961266</v>
+        <v>47.05580814653401</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>48.38477608933144</v>
+        <v>49.45875764687104</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>20.88219894999316</v>
+        <v>21.2891770883475</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>39.65775244321978</v>
+        <v>39.83228342094978</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>45.37095073992158</v>
+        <v>46.40415144204339</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>11.69904811115882</v>
+        <v>5.858049713998327</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>35.58866003161804</v>
+        <v>32.87108390022995</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>43.80773611621731</v>
+        <v>43.7509125498413</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>13.47712609719449</v>
+        <v>5.985887914065422</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>52.05642999333551</v>
+        <v>59.32449544807142</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>13.29552138688706</v>
+        <v>5.446327671282152</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>26.00631726798915</v>
+        <v>22.18468936704512</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>32.75480565181317</v>
+        <v>27.74444902737707</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>6.066685655178832</v>
+        <v>0.1537516335471665</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.01625706161203</v>
+        <v>32.97771130705836</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>40.40867629946101</v>
+        <v>37.28876048881038</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>12.26442952091564</v>
+        <v>4.628435132284167</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>52.06196087185302</v>
+        <v>50.65372740985512</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>57.11160207107245</v>
+        <v>53.66800497958239</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>50.52502781964637</v>
+        <v>53.00939059089762</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>57.3394660833501</v>
+        <v>59.017160923375</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>60.23160513564891</v>
+        <v>62.23209459722695</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>19.95792058953828</v>
+        <v>7.936367605403259</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>41.48594635356166</v>
+        <v>36.44732769664407</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>49.64738308379664</v>
+        <v>41.94386792579287</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>19.6697094980067</v>
+        <v>12.53356072369236</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>39.34195667163408</v>
+        <v>35.48164399224011</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>45.87124972177526</v>
+        <v>44.21580205740248</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>12.62063243955499</v>
+        <v>1.202565329194293</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>37.10351857810677</v>
+        <v>27.57191855575653</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>46.5274183243873</v>
+        <v>44.51230110961522</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>14.58447575017349</v>
+        <v>2.288344588808751</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>53.84082478784104</v>
+        <v>47.01255410390443</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>0.4346673104493979</v>
+        <v>2.862089422269058</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>10.83966116336705</v>
+        <v>17.072012428865</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>18.03028499626341</v>
+        <v>28.55263692788676</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-9.848578905766008</v>
+        <v>0.8444371737638079</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>17.13829832512242</v>
+        <v>30.53741783366125</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>21.34332525526277</v>
+        <v>37.63988427869785</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-4.797120862098192</v>
+        <v>1.942494932603729</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.17662467156494</v>
+        <v>46.53237411351049</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>37.320335128492</v>
+        <v>54.27465396464657</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>30.03304601815899</v>
+        <v>43.40638940853589</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>37.05757136788543</v>
+        <v>49.99782992458548</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>39.66330836932697</v>
+        <v>53.33147807540608</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>3.904974378228779</v>
+        <v>6.176338583810466</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>21.55546323052544</v>
+        <v>26.79776193088868</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>30.25871446113275</v>
+        <v>42.57679567725418</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>4.337452886908649</v>
+        <v>8.962381281892519</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>21.86729938090291</v>
+        <v>31.6150124992364</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.36457056471064</v>
+        <v>44.5145725244276</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-6.177250122258046</v>
+        <v>2.826729738506515</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>15.04612347663431</v>
+        <v>27.54406156442938</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>23.88765690522262</v>
+        <v>42.49039975258718</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-5.818443453705504</v>
+        <v>1.787941823461193</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>30.33081635034778</v>
+        <v>42.91148851412385</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>46.5661156671614</v>
+        <v>33.09216815050517</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>30.85238036600693</v>
+        <v>23.39297069731282</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>44.25929847966049</v>
+        <v>45.37886451552038</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>53.25426300932835</v>
+        <v>52.56393639721841</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>10.71997072950921</v>
+        <v>4.930749158829968</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>38.4559600521588</v>
+        <v>22.23620904026424</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>46.34032916504137</v>
+        <v>33.62995726135813</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>14.18363858233785</v>
+        <v>10.58508956986724</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.45503345813033</v>
+        <v>25.55422074249875</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>39.322478201233</v>
+        <v>36.49757452285242</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>1.86397523208054</v>
+        <v>-1.473117351031686</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>23.76875202568534</v>
+        <v>9.632465141302678</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>31.8460084468674</v>
+        <v>16.37677202303271</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>2.63151246413732</v>
+        <v>-0.0197072470698707</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>41.80111559720594</v>
+        <v>27.25320467061525</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>55.87995367011489</v>
+        <v>41.7790797220993</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>48.29158959139291</v>
+        <v>28.20325478019048</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>59.69707285039318</v>
+        <v>51.00858602758348</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>67.52607464684162</v>
+        <v>56.13242648799398</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>12.11444486069436</v>
+        <v>3.802520055695673</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>48.40411678523623</v>
+        <v>23.76510968032909</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>60.92002147272289</v>
+        <v>33.51513497586578</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>64.20762540443073</v>
+        <v>70.19235801409943</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>52.11042112524349</v>
+        <v>61.66482627276363</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>64.65682237813371</v>
+        <v>76.09300670913117</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>73.20993198263635</v>
+        <v>82.39145353771241</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>24.92415507893968</v>
+        <v>23.25583498933559</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>60.80367253271902</v>
+        <v>73.97849915550056</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>67.47153566861891</v>
+        <v>77.36152933693111</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>23.70039015406877</v>
+        <v>26.1265294616991</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>43.37239546732815</v>
+        <v>46.97824519654493</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>51.90272185333258</v>
+        <v>52.30334504778632</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>13.92456701795572</v>
+        <v>7.183074438366678</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>43.7729435367948</v>
+        <v>42.02000600361767</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>51.2260131588091</v>
+        <v>49.71228986106111</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>17.24090924450201</v>
+        <v>10.54369271210343</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>64.43580928689286</v>
+        <v>75.68646781206793</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>76.86435387576753</v>
+        <v>78.46733097958237</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>74.79001395629741</v>
+        <v>85.80658107800974</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>85.34511154104202</v>
+        <v>96.21539642469047</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>92.28080317783888</v>
+        <v>97.19551517651072</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>31.36620122075986</v>
+        <v>32.91212385699966</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>75.74635939159222</v>
+        <v>89.17383853943741</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>86.57009248991426</v>
+        <v>91.24819670757029</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>67.21143098326381</v>
+        <v>72.95185401909158</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>53.58855079085502</v>
+        <v>51.27378019478031</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>65.69392863747504</v>
+        <v>62.18826870404062</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>75.41234960474013</v>
+        <v>79.86226250226211</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>24.82212496339854</v>
+        <v>13.94283189704791</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>62.29171849491729</v>
+        <v>66.75418025099894</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>69.5635820222909</v>
+        <v>75.14113141624613</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>22.91505895657233</v>
+        <v>14.70910285390324</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>43.66076991552183</v>
+        <v>41.64077819422705</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>52.88890555775096</v>
+        <v>50.15964032548099</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>15.50711260638197</v>
+        <v>3.187073446618072</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>46.12176942940469</v>
+        <v>39.90480113518159</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>54.61284628074606</v>
+        <v>51.88703691667028</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>18.91606669369315</v>
+        <v>4.812117581622267</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>67.05401872723317</v>
+        <v>68.0336150330111</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>80.5033062486074</v>
+        <v>81.64876682151544</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>77.410547962961</v>
+        <v>80.1655466575956</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>87.72143658826826</v>
+        <v>89.82536832703626</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>95.52371200808112</v>
+        <v>98.61555679177312</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>32.06800223207799</v>
+        <v>19.53726685178608</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>78.07440688840968</v>
+        <v>80.7218809025033</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>89.64309575479341</v>
+        <v>87.87905491522039</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>43.41977529872814</v>
+        <v>69.04890876067969</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>30.80816844309455</v>
+        <v>36.18574737156615</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>43.84234746708896</v>
+        <v>48.71912873015094</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>52.95350553412669</v>
+        <v>62.50818505779424</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>5.775426897139744</v>
+        <v>10.41609096493278</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>39.21931188295154</v>
+        <v>56.69306698385846</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>46.60776100142299</v>
+        <v>69.01825123705734</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>5.456436760589821</v>
+        <v>12.4585787209365</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>23.82985699714188</v>
+        <v>41.47922094534064</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>33.31277529235733</v>
+        <v>54.69468318693499</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-5.571157183045599</v>
+        <v>5.966146057935617</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>21.54571609649469</v>
+        <v>40.74180272113225</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.73464751812432</v>
+        <v>54.50270715407559</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-3.874565076129407</v>
+        <v>4.428551020749541</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>40.92935732696066</v>
+        <v>61.99003742452062</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>54.6237774803016</v>
+        <v>81.82527089598879</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>51.58424604698909</v>
+        <v>67.24642749460784</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>62.55189475619862</v>
+        <v>82.60510322390761</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>70.07839790825601</v>
+        <v>98.63631054594325</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>10.05266106332691</v>
+        <v>15.36755988714194</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>52.22655206155711</v>
+        <v>76.05884614133939</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>64.01705109156038</v>
+        <v>89.35458636556328</v>
       </c>
     </row>
   </sheetData>
